--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed5/result_data_RandomForest.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.17030000000001</v>
+        <v>-13.0642</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.8325</v>
+        <v>4.727699999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.304199999999998</v>
+        <v>-8.559799999999996</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.048800000000002</v>
+        <v>-8.2766</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.02740000000001</v>
+        <v>-12.1276</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.339599999999992</v>
+        <v>-8.37619999999999</v>
       </c>
     </row>
     <row r="25">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.069199999999999</v>
+        <v>5.624200000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.6381</v>
+        <v>-13.5844</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.618999999999999</v>
+        <v>6.445599999999995</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.2027</v>
+        <v>-11.78060000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.1189</v>
+        <v>-11.77320000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.325800000000008</v>
+        <v>9.378900000000002</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,13 +964,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.519499999999999</v>
+        <v>6.172700000000003</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.599500000000003</v>
+        <v>-7.909500000000006</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.339299999999994</v>
+        <v>-8.425799999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.69399999999999</v>
+        <v>-12.5256</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.3474</v>
+        <v>6.089200000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.28229999999999</v>
+        <v>-13.43069999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.707400000000002</v>
+        <v>-7.805000000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1188,10 +1188,10 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.180300000000002</v>
+        <v>5.259900000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>-14.07209999999999</v>
+        <v>-14.14639999999999</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.4874</v>
+        <v>5.589699999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1216,7 +1216,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.602799999999996</v>
+        <v>4.811899999999997</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.677199999999994</v>
+        <v>5.494099999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.323999999999995</v>
+        <v>5.290599999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,13 +1440,13 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.339400000000004</v>
+        <v>5.225500000000004</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.2222</v>
+        <v>-7.243799999999998</v>
       </c>
     </row>
     <row r="73">
@@ -1527,10 +1527,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.1478</v>
+        <v>-11.78770000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.7799</v>
+        <v>-7.844000000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.22440000000001</v>
+        <v>-13.2923</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1594,13 +1594,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.677699999999999</v>
+        <v>5.379199999999996</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.241799999999998</v>
+        <v>-9.212799999999993</v>
       </c>
     </row>
     <row r="84">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.729200000000001</v>
+        <v>-8.680400000000002</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.351</v>
+        <v>5.418899999999999</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.9568</v>
+        <v>-7.870699999999998</v>
       </c>
     </row>
     <row r="87">
@@ -1698,7 +1698,7 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.205499999999993</v>
+        <v>-7.257099999999993</v>
       </c>
     </row>
     <row r="91">
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>4.906299999999995</v>
+        <v>4.721499999999995</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.593000000000002</v>
+        <v>5.527400000000003</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.669899999999995</v>
+        <v>-8.652399999999993</v>
       </c>
     </row>
     <row r="97">
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.3002</v>
+        <v>-11.3669</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1818,10 +1818,10 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.363299999999999</v>
+        <v>5.977899999999998</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.3938</v>
+        <v>-12.43160000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.85820000000001</v>
+        <v>-13.1941</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.966500000000001</v>
+        <v>-8.014500000000002</v>
       </c>
     </row>
     <row r="104">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.347399999999997</v>
+        <v>9.607999999999999</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
